--- a/excel/Описание_работ/11/Химия/KS.xlsx
+++ b/excel/Описание_работ/11/Химия/KS.xlsx
@@ -195,9 +195,6 @@
     <t>Теория строения органических соединений. Гомологический ряд, гомологи. Структурная изомерия. Типы химических связей в молекулах органических соединений</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>Углеводороды: алканы, алкены и диены, алкины, арены. Химические свойства и получение. Природные источники углеводородов: нефть и природный газ</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>ХИМИЯ И ЖИЗНЬ</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,10 +824,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,106 +848,106 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
